--- a/dev/Tutorials/3MKT/outputs/3mkt-05.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-05.xlsx
@@ -10625,7 +10625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10691,25 +10691,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>avg_price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rasm</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sys_lf</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>local_pct_leg_pax</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>local_pct_bookings</t>
         </is>
@@ -10754,18 +10769,27 @@
         <v>383.4725</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>311.8318453815085</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.1709893404042369</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.1507370168809058</v>
+      </c>
+      <c r="Q2" t="n">
         <v>88.15579762138826</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>48.8229273285568</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>65.61210453920219</v>
       </c>
     </row>
@@ -10808,18 +10832,27 @@
         <v>384.5825</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>312.3379058349539</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1715893692143936</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.151685365401474</v>
+      </c>
+      <c r="Q3" t="n">
         <v>88.40021156086284</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>49.08504677149897</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>65.84838363666489</v>
       </c>
     </row>
@@ -27444,7 +27477,7 @@
         <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G2" t="n">
         <v>27993</v>
@@ -27480,7 +27513,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G3" t="n">
         <v>35631</v>
@@ -27524,7 +27557,7 @@
         <v>375</v>
       </c>
       <c r="F4" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G4" t="n">
         <v>48193</v>
@@ -27560,7 +27593,7 @@
         <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G5" t="n">
         <v>61275</v>
@@ -27604,7 +27637,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G6" t="n">
         <v>39776</v>
@@ -27640,7 +27673,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G7" t="n">
         <v>55869</v>

--- a/dev/Tutorials/3MKT/outputs/3mkt-05.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-05.xlsx
@@ -10,16 +10,17 @@
     <sheet name="bid_price_history" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="carriers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="carrier_history2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="demand_to_come_summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="demands" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="displacement_history" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fare_class_mix" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="legbuckets" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="legs" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="pathclasses" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="path_legs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="paths" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="segmentation_by_timeframe" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="cp_segmentation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="demand_to_come_summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="demands" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="displacement_history" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fare_class_mix" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="legbuckets" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="legs" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="pathclasses" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="path_legs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="paths" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="segmentation_by_timeframe" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3760,7 +3761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,6 +3772,381 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>leg_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flt_no</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>orig</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dest</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gt_capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold_local</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>33450</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13845</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5377568.854759054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>33569</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13924</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5388403.252251046</v>
+      </c>
+      <c r="J3" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>33463</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5369219.06225928</v>
+      </c>
+      <c r="J4" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>33779</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14131</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5460461.668701907</v>
+      </c>
+      <c r="J5" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>43168</v>
+      </c>
+      <c r="G6" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23563</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12428731.14524031</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>43202</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23557</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12397471.74774833</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>211</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>43265</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23751</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12451305.93774015</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>212</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>43326</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23678</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12535113.33129749</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>path_id</t>
         </is>
       </c>
@@ -3817,6 +4193,16 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gt_sold_by_segment_leisure</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_business</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_leisure</t>
         </is>
       </c>
     </row>
@@ -3859,6 +4245,12 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
+      <c r="K2" t="n">
+        <v>340000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -3897,6 +4289,12 @@
       <c r="J3" t="n">
         <v>38</v>
       </c>
+      <c r="K3" t="n">
+        <v>1087200</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11400</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -3935,6 +4333,12 @@
       <c r="J4" t="n">
         <v>235</v>
       </c>
+      <c r="K4" t="n">
+        <v>353400</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -3973,6 +4377,12 @@
       <c r="J5" t="n">
         <v>478</v>
       </c>
+      <c r="K5" t="n">
+        <v>13800</v>
+      </c>
+      <c r="L5" t="n">
+        <v>71700</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -4011,6 +4421,12 @@
       <c r="J6" t="n">
         <v>4378</v>
       </c>
+      <c r="K6" t="n">
+        <v>14375</v>
+      </c>
+      <c r="L6" t="n">
+        <v>547250</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -4049,6 +4465,12 @@
       <c r="J7" t="n">
         <v>2267</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>226700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4089,6 +4511,12 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
+      <c r="K8" t="n">
+        <v>358800</v>
+      </c>
+      <c r="L8" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -4127,6 +4555,12 @@
       <c r="J9" t="n">
         <v>43</v>
       </c>
+      <c r="K9" t="n">
+        <v>1093200</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12900</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -4165,6 +4599,12 @@
       <c r="J10" t="n">
         <v>208</v>
       </c>
+      <c r="K10" t="n">
+        <v>353400</v>
+      </c>
+      <c r="L10" t="n">
+        <v>41600</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -4203,6 +4643,12 @@
       <c r="J11" t="n">
         <v>537</v>
       </c>
+      <c r="K11" t="n">
+        <v>13200</v>
+      </c>
+      <c r="L11" t="n">
+        <v>80550</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -4241,6 +4687,12 @@
       <c r="J12" t="n">
         <v>4448</v>
       </c>
+      <c r="K12" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L12" t="n">
+        <v>556000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -4279,6 +4731,12 @@
       <c r="J13" t="n">
         <v>2183</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>218300</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4319,6 +4777,12 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>344000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -4357,6 +4821,12 @@
       <c r="J15" t="n">
         <v>40</v>
       </c>
+      <c r="K15" t="n">
+        <v>1100400</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -4395,6 +4865,12 @@
       <c r="J16" t="n">
         <v>209</v>
       </c>
+      <c r="K16" t="n">
+        <v>350400</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41800</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -4433,6 +4909,12 @@
       <c r="J17" t="n">
         <v>486</v>
       </c>
+      <c r="K17" t="n">
+        <v>12900</v>
+      </c>
+      <c r="L17" t="n">
+        <v>72900</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -4471,6 +4953,12 @@
       <c r="J18" t="n">
         <v>4447</v>
       </c>
+      <c r="K18" t="n">
+        <v>13250</v>
+      </c>
+      <c r="L18" t="n">
+        <v>555875</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -4509,6 +4997,12 @@
       <c r="J19" t="n">
         <v>2295</v>
       </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>229500</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -4549,6 +5043,12 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
+      <c r="K20" t="n">
+        <v>344800</v>
+      </c>
+      <c r="L20" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -4587,6 +5087,12 @@
       <c r="J21" t="n">
         <v>50</v>
       </c>
+      <c r="K21" t="n">
+        <v>1132800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -4625,6 +5131,12 @@
       <c r="J22" t="n">
         <v>223</v>
       </c>
+      <c r="K22" t="n">
+        <v>349800</v>
+      </c>
+      <c r="L22" t="n">
+        <v>44600</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -4663,6 +5175,12 @@
       <c r="J23" t="n">
         <v>522</v>
       </c>
+      <c r="K23" t="n">
+        <v>15300</v>
+      </c>
+      <c r="L23" t="n">
+        <v>78300</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -4701,6 +5219,12 @@
       <c r="J24" t="n">
         <v>4492</v>
       </c>
+      <c r="K24" t="n">
+        <v>13250</v>
+      </c>
+      <c r="L24" t="n">
+        <v>561500</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -4739,6 +5263,12 @@
       <c r="J25" t="n">
         <v>2248</v>
       </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>224800</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4779,6 +5309,12 @@
       <c r="J26" t="n">
         <v>5</v>
       </c>
+      <c r="K26" t="n">
+        <v>2812000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -4817,6 +5353,12 @@
       <c r="J27" t="n">
         <v>149</v>
       </c>
+      <c r="K27" t="n">
+        <v>1592800</v>
+      </c>
+      <c r="L27" t="n">
+        <v>59600</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -4855,6 +5397,12 @@
       <c r="J28" t="n">
         <v>403</v>
       </c>
+      <c r="K28" t="n">
+        <v>331800</v>
+      </c>
+      <c r="L28" t="n">
+        <v>120900</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -4893,6 +5441,12 @@
       <c r="J29" t="n">
         <v>835</v>
       </c>
+      <c r="K29" t="n">
+        <v>11250</v>
+      </c>
+      <c r="L29" t="n">
+        <v>187875</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -4931,6 +5485,12 @@
       <c r="J30" t="n">
         <v>9179</v>
       </c>
+      <c r="K30" t="n">
+        <v>18025</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1606325</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -4969,6 +5529,12 @@
       <c r="J31" t="n">
         <v>2127</v>
       </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>319050</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5009,6 +5575,12 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
+      <c r="K32" t="n">
+        <v>2867500</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -5047,6 +5619,12 @@
       <c r="J33" t="n">
         <v>126</v>
       </c>
+      <c r="K33" t="n">
+        <v>1568000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>50400</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -5085,6 +5663,12 @@
       <c r="J34" t="n">
         <v>411</v>
       </c>
+      <c r="K34" t="n">
+        <v>321900</v>
+      </c>
+      <c r="L34" t="n">
+        <v>123300</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -5123,6 +5707,12 @@
       <c r="J35" t="n">
         <v>707</v>
       </c>
+      <c r="K35" t="n">
+        <v>12375</v>
+      </c>
+      <c r="L35" t="n">
+        <v>159075</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -5161,6 +5751,12 @@
       <c r="J36" t="n">
         <v>9278</v>
       </c>
+      <c r="K36" t="n">
+        <v>18900</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1623650</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -5199,6 +5795,12 @@
       <c r="J37" t="n">
         <v>2144</v>
       </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>321600</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5239,6 +5841,12 @@
       <c r="J38" t="n">
         <v>3</v>
       </c>
+      <c r="K38" t="n">
+        <v>2886000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -5277,6 +5885,12 @@
       <c r="J39" t="n">
         <v>148</v>
       </c>
+      <c r="K39" t="n">
+        <v>1604800</v>
+      </c>
+      <c r="L39" t="n">
+        <v>59200</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -5315,6 +5929,12 @@
       <c r="J40" t="n">
         <v>390</v>
       </c>
+      <c r="K40" t="n">
+        <v>329700</v>
+      </c>
+      <c r="L40" t="n">
+        <v>117000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -5353,6 +5973,12 @@
       <c r="J41" t="n">
         <v>749</v>
       </c>
+      <c r="K41" t="n">
+        <v>9450</v>
+      </c>
+      <c r="L41" t="n">
+        <v>168525</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -5391,6 +6017,12 @@
       <c r="J42" t="n">
         <v>9295</v>
       </c>
+      <c r="K42" t="n">
+        <v>17150</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1626625</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -5429,6 +6061,12 @@
       <c r="J43" t="n">
         <v>2143</v>
       </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>321450</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5469,6 +6107,12 @@
       <c r="J44" t="n">
         <v>6</v>
       </c>
+      <c r="K44" t="n">
+        <v>2875500</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -5507,6 +6151,12 @@
       <c r="J45" t="n">
         <v>150</v>
       </c>
+      <c r="K45" t="n">
+        <v>1639200</v>
+      </c>
+      <c r="L45" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -5545,6 +6195,12 @@
       <c r="J46" t="n">
         <v>392</v>
       </c>
+      <c r="K46" t="n">
+        <v>315000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>117600</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -5583,6 +6239,12 @@
       <c r="J47" t="n">
         <v>738</v>
       </c>
+      <c r="K47" t="n">
+        <v>11250</v>
+      </c>
+      <c r="L47" t="n">
+        <v>166050</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -5621,6 +6283,12 @@
       <c r="J48" t="n">
         <v>9212</v>
       </c>
+      <c r="K48" t="n">
+        <v>19600</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1612100</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -5659,6 +6327,12 @@
       <c r="J49" t="n">
         <v>2119</v>
       </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>317850</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5699,6 +6373,12 @@
       <c r="J50" t="n">
         <v>9</v>
       </c>
+      <c r="K50" t="n">
+        <v>2949750</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6750</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -5737,6 +6417,12 @@
       <c r="J51" t="n">
         <v>55</v>
       </c>
+      <c r="K51" t="n">
+        <v>1391875</v>
+      </c>
+      <c r="L51" t="n">
+        <v>34375</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -5775,6 +6461,12 @@
       <c r="J52" t="n">
         <v>271</v>
       </c>
+      <c r="K52" t="n">
+        <v>800550</v>
+      </c>
+      <c r="L52" t="n">
+        <v>121950</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -5813,6 +6505,12 @@
       <c r="J53" t="n">
         <v>610</v>
       </c>
+      <c r="K53" t="n">
+        <v>81250</v>
+      </c>
+      <c r="L53" t="n">
+        <v>198250</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -5851,6 +6549,12 @@
       <c r="J54" t="n">
         <v>6721</v>
       </c>
+      <c r="K54" t="n">
+        <v>79750</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1680250</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -5889,6 +6593,12 @@
       <c r="J55" t="n">
         <v>3431</v>
       </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>686200</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5929,6 +6639,12 @@
       <c r="J56" t="n">
         <v>2</v>
       </c>
+      <c r="K56" t="n">
+        <v>2870250</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -5967,6 +6683,12 @@
       <c r="J57" t="n">
         <v>46</v>
       </c>
+      <c r="K57" t="n">
+        <v>1366875</v>
+      </c>
+      <c r="L57" t="n">
+        <v>28750</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -6005,6 +6727,12 @@
       <c r="J58" t="n">
         <v>273</v>
       </c>
+      <c r="K58" t="n">
+        <v>817200</v>
+      </c>
+      <c r="L58" t="n">
+        <v>122850</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -6043,6 +6771,12 @@
       <c r="J59" t="n">
         <v>618</v>
       </c>
+      <c r="K59" t="n">
+        <v>93600</v>
+      </c>
+      <c r="L59" t="n">
+        <v>200850</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -6081,6 +6815,12 @@
       <c r="J60" t="n">
         <v>6793</v>
       </c>
+      <c r="K60" t="n">
+        <v>91000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1698250</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -6119,6 +6859,12 @@
       <c r="J61" t="n">
         <v>3431</v>
       </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>686200</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6159,6 +6905,12 @@
       <c r="J62" t="n">
         <v>3</v>
       </c>
+      <c r="K62" t="n">
+        <v>2923500</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -6197,6 +6949,12 @@
       <c r="J63" t="n">
         <v>57</v>
       </c>
+      <c r="K63" t="n">
+        <v>1305625</v>
+      </c>
+      <c r="L63" t="n">
+        <v>35625</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -6235,6 +6993,12 @@
       <c r="J64" t="n">
         <v>285</v>
       </c>
+      <c r="K64" t="n">
+        <v>812700</v>
+      </c>
+      <c r="L64" t="n">
+        <v>128250</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -6273,6 +7037,12 @@
       <c r="J65" t="n">
         <v>557</v>
       </c>
+      <c r="K65" t="n">
+        <v>91325</v>
+      </c>
+      <c r="L65" t="n">
+        <v>181025</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -6311,6 +7081,12 @@
       <c r="J66" t="n">
         <v>6835</v>
       </c>
+      <c r="K66" t="n">
+        <v>82250</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1708750</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -6349,6 +7125,12 @@
       <c r="J67" t="n">
         <v>3374</v>
       </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>674800</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6389,6 +7171,12 @@
       <c r="J68" t="n">
         <v>2</v>
       </c>
+      <c r="K68" t="n">
+        <v>3012000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -6427,6 +7215,12 @@
       <c r="J69" t="n">
         <v>61</v>
       </c>
+      <c r="K69" t="n">
+        <v>1403750</v>
+      </c>
+      <c r="L69" t="n">
+        <v>38125</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -6465,6 +7259,12 @@
       <c r="J70" t="n">
         <v>245</v>
       </c>
+      <c r="K70" t="n">
+        <v>796050</v>
+      </c>
+      <c r="L70" t="n">
+        <v>110250</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -6503,6 +7303,12 @@
       <c r="J71" t="n">
         <v>538</v>
       </c>
+      <c r="K71" t="n">
+        <v>82550</v>
+      </c>
+      <c r="L71" t="n">
+        <v>174850</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -6541,6 +7347,12 @@
       <c r="J72" t="n">
         <v>6747</v>
       </c>
+      <c r="K72" t="n">
+        <v>90250</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1686750</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -6578,6 +7390,12 @@
       </c>
       <c r="J73" t="n">
         <v>3409</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>681800</v>
       </c>
     </row>
   </sheetData>
@@ -6599,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6806,7 +7624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7415,13 +8233,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10595,25 +11413,231 @@
         <v>1622.25</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>XX</t>
+        </is>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.0275</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.0125</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>18.6175</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10.405</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14.9675</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5.4425</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.7225</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1775</v>
+      </c>
+      <c r="F161" t="n">
+        <v>9.737500000000001</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.045</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="n"/>
+      <c r="D164" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
+      <c r="D165" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="n">
+        <v>0.8575</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="1" t="n"/>
+      <c r="D166" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="n"/>
+      <c r="D167" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="n"/>
+      <c r="D168" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="B80:B155"/>
+    <mergeCell ref="B4:B79"/>
+    <mergeCell ref="C36:C49"/>
+    <mergeCell ref="C156:C168"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C126:C137"/>
+    <mergeCell ref="C96:C111"/>
+    <mergeCell ref="A4:A168"/>
+    <mergeCell ref="C148:C155"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="C112:C125"/>
+    <mergeCell ref="C50:C61"/>
     <mergeCell ref="C72:C79"/>
     <mergeCell ref="C4:C19"/>
     <mergeCell ref="C138:C147"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B156:B168"/>
     <mergeCell ref="C80:C95"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C126:C137"/>
-    <mergeCell ref="B80:B155"/>
-    <mergeCell ref="B4:B79"/>
-    <mergeCell ref="C36:C49"/>
-    <mergeCell ref="C96:C111"/>
-    <mergeCell ref="A4:A155"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="C112:C125"/>
-    <mergeCell ref="C148:C155"/>
-    <mergeCell ref="C50:C61"/>
-    <mergeCell ref="C62:C71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26923,6 +27947,309 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>booking_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20884</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12209850</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8297375</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3555850</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4608</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1123775</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41914</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7947275</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15583</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2458050</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21174</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12394450</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20395</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8406525</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10969</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3513150</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4405</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1064425</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>42140</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7987350</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15588</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2450200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27378,7 +28705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27492,7 +28819,7 @@
         <v>680</v>
       </c>
       <c r="K2" t="n">
-        <v>1556</v>
+        <v>1294</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27528,7 +28855,7 @@
         <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>6924</v>
+        <v>5561</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27572,7 +28899,7 @@
         <v>3493</v>
       </c>
       <c r="K4" t="n">
-        <v>1047</v>
+        <v>860</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27608,7 +28935,7 @@
         <v>1176</v>
       </c>
       <c r="K5" t="n">
-        <v>11611</v>
+        <v>9390</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27652,7 +28979,7 @@
         <v>3537</v>
       </c>
       <c r="K6" t="n">
-        <v>2653</v>
+        <v>2200</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27688,7 +29015,7 @@
         <v>1332</v>
       </c>
       <c r="K7" t="n">
-        <v>12618</v>
+        <v>10164</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27707,7 +29034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28210,7 +29537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28431,7 +29758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29413,379 +30740,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>leg_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>carrier</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>flt_no</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>orig</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dest</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gt_capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold_local</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gt_revenue</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>33450</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5377568.854759054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>33569</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13924</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5388403.252251046</v>
-      </c>
-      <c r="J3" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>201</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>33463</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13949</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5369219.06225928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>202</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>33779</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14131</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5460461.668701907</v>
-      </c>
-      <c r="J5" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>43168</v>
-      </c>
-      <c r="G6" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>23563</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12428731.14524031</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>112</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>43202</v>
-      </c>
-      <c r="G7" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23557</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12397471.74774833</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>211</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>43265</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>23751</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12451305.93774015</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>212</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>43326</v>
-      </c>
-      <c r="G9" t="n">
-        <v>48000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>23678</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12535113.33129749</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>